--- a/database/FileExcel/Gambar.xlsx
+++ b/database/FileExcel/Gambar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yovie\persediaanapp-magang\database\FileExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830AE077-A414-49AC-AE5C-A879431EFA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD0ECEB-670E-49F7-842C-3B111C839877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B1A6D6DA-43F5-4D03-876B-1BE0E6BF7134}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -50,7 +50,160 @@
     <t>url_gambar</t>
   </si>
   <si>
-    <t>tees.jpg</t>
+    <t>tees1-1.jpg</t>
+  </si>
+  <si>
+    <t>tees1-2.jpg</t>
+  </si>
+  <si>
+    <t>tees1-3.jpg</t>
+  </si>
+  <si>
+    <t>tees1-4.jpg</t>
+  </si>
+  <si>
+    <t>tees2-1.jpg</t>
+  </si>
+  <si>
+    <t>tees3-1.jpg</t>
+  </si>
+  <si>
+    <t>tees2-2.jpg</t>
+  </si>
+  <si>
+    <t>tees2-3.jpg</t>
+  </si>
+  <si>
+    <t>tees2-4.jpg</t>
+  </si>
+  <si>
+    <t>tees3-2.jpg</t>
+  </si>
+  <si>
+    <t>tees3-3.jpg</t>
+  </si>
+  <si>
+    <t>tees3-4.jpg</t>
+  </si>
+  <si>
+    <t>kemeja1-1.jpg</t>
+  </si>
+  <si>
+    <t>kemeja1-2.jpg</t>
+  </si>
+  <si>
+    <t>kemeja1-3.jpg</t>
+  </si>
+  <si>
+    <t>kemeja1-4.jpg</t>
+  </si>
+  <si>
+    <t>kemeja2-1.jpg</t>
+  </si>
+  <si>
+    <t>kemeja2-2.jpg</t>
+  </si>
+  <si>
+    <t>kemeja2-3.jpg</t>
+  </si>
+  <si>
+    <t>kemeja2-4.jpg</t>
+  </si>
+  <si>
+    <t>sleeve1-1.jpg</t>
+  </si>
+  <si>
+    <t>sleeve1-2.jpg</t>
+  </si>
+  <si>
+    <t>sleeve1-3.jpg</t>
+  </si>
+  <si>
+    <t>sleeve1-4.jpg</t>
+  </si>
+  <si>
+    <t>topi1-1.jpg</t>
+  </si>
+  <si>
+    <t>topi1-2.jpg</t>
+  </si>
+  <si>
+    <t>topi1-3.jpg</t>
+  </si>
+  <si>
+    <t>topi1-4.jpg</t>
+  </si>
+  <si>
+    <t>topi2-1.jpg</t>
+  </si>
+  <si>
+    <t>topi2-2.jpg</t>
+  </si>
+  <si>
+    <t>topi2-3.jpg</t>
+  </si>
+  <si>
+    <t>topi2-4.jpg</t>
+  </si>
+  <si>
+    <t>tas1-1.jpg</t>
+  </si>
+  <si>
+    <t>tas2-1.jpg</t>
+  </si>
+  <si>
+    <t>tas1-2.jpg</t>
+  </si>
+  <si>
+    <t>tas1-3.jpg</t>
+  </si>
+  <si>
+    <t>tas1-4.jpg</t>
+  </si>
+  <si>
+    <t>tas2-2.jpg</t>
+  </si>
+  <si>
+    <t>tas2-3.jpg</t>
+  </si>
+  <si>
+    <t>tas2-4.jpg</t>
+  </si>
+  <si>
+    <t>akse1-1.jpg</t>
+  </si>
+  <si>
+    <t>akse2-1.jpg</t>
+  </si>
+  <si>
+    <t>akse3-1.jpg</t>
+  </si>
+  <si>
+    <t>akse1-2.jpg</t>
+  </si>
+  <si>
+    <t>akse1-3.jpg</t>
+  </si>
+  <si>
+    <t>akse1-4.jpg</t>
+  </si>
+  <si>
+    <t>akse2-2.jpg</t>
+  </si>
+  <si>
+    <t>akse2-3.jpg</t>
+  </si>
+  <si>
+    <t>akse2-4.jpg</t>
+  </si>
+  <si>
+    <t>akse3-2.jpg</t>
+  </si>
+  <si>
+    <t>akse3-3.jpg</t>
+  </si>
+  <si>
+    <t>akse3-4.jpg</t>
   </si>
 </sst>
 </file>
@@ -419,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC210C0-9D73-46BA-9C56-AD0FD5D86CE8}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -466,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -478,7 +631,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -486,10 +639,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -500,7 +653,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -511,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -519,10 +672,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -530,10 +683,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -544,7 +697,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -552,10 +705,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -563,10 +716,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -574,10 +727,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -585,10 +738,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -596,10 +749,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -607,10 +760,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -618,10 +771,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -629,10 +782,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -640,10 +793,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -651,10 +804,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -662,10 +815,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -673,10 +826,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -684,10 +837,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -695,10 +848,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -706,10 +859,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -717,10 +870,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -728,10 +881,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -739,10 +892,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -750,10 +903,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -761,10 +914,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -772,10 +925,252 @@
         <v>30</v>
       </c>
       <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
         <v>10</v>
       </c>
-      <c r="C31" t="s">
-        <v>5</v>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>13</v>
+      </c>
+      <c r="C53" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/database/FileExcel/Gambar.xlsx
+++ b/database/FileExcel/Gambar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yovie\persediaanapp-magang\database\FileExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E087D7-EC2D-4E89-9AC2-1665CA48B0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82449BF0-EDC9-43FB-AD13-2C0CC149263F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5550" yWindow="110" windowWidth="11440" windowHeight="9330" xr2:uid="{B1A6D6DA-43F5-4D03-876B-1BE0E6BF7134}"/>
+    <workbookView xWindow="6570" yWindow="2990" windowWidth="11440" windowHeight="7810" xr2:uid="{B1A6D6DA-43F5-4D03-876B-1BE0E6BF7134}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,34 +43,34 @@
     <t>updated_at</t>
   </si>
   <si>
+    <t>url_gambar</t>
+  </si>
+  <si>
+    <t>ts1-1.jpg</t>
+  </si>
+  <si>
+    <t>ts4-4.jpg</t>
+  </si>
+  <si>
+    <t>ts1-2.jpg</t>
+  </si>
+  <si>
+    <t>ts1-3.jpg</t>
+  </si>
+  <si>
+    <t>ts1-4.jpg</t>
+  </si>
+  <si>
+    <t>ts4-1.jpg</t>
+  </si>
+  <si>
+    <t>ts4-2.jpg</t>
+  </si>
+  <si>
+    <t>ts4-3.jpg</t>
+  </si>
+  <si>
     <t>id_barang</t>
-  </si>
-  <si>
-    <t>url_gambar</t>
-  </si>
-  <si>
-    <t>ts1-1.jpg</t>
-  </si>
-  <si>
-    <t>ts4-4.jpg</t>
-  </si>
-  <si>
-    <t>ts1-2.jpg</t>
-  </si>
-  <si>
-    <t>ts1-3.jpg</t>
-  </si>
-  <si>
-    <t>ts1-4.jpg</t>
-  </si>
-  <si>
-    <t>ts4-1.jpg</t>
-  </si>
-  <si>
-    <t>ts4-2.jpg</t>
-  </si>
-  <si>
-    <t>ts4-3.jpg</t>
   </si>
 </sst>
 </file>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC210C0-9D73-46BA-9C56-AD0FD5D86CE8}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1048560" workbookViewId="0">
-      <selection activeCell="C1048576" sqref="C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -452,10 +452,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -472,7 +472,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1"/>
       <c r="K2" s="2"/>
@@ -486,7 +486,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -498,7 +498,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -509,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -520,7 +520,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -531,7 +531,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -542,7 +542,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -553,7 +553,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/database/FileExcel/Gambar.xlsx
+++ b/database/FileExcel/Gambar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yovie\persediaanapp-magang\database\FileExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82449BF0-EDC9-43FB-AD13-2C0CC149263F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE6A9AD-FD43-4F1B-B7A4-5F549179B6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="2990" windowWidth="11440" windowHeight="7810" xr2:uid="{B1A6D6DA-43F5-4D03-876B-1BE0E6BF7134}"/>
+    <workbookView xWindow="430" yWindow="410" windowWidth="11440" windowHeight="7810" xr2:uid="{B1A6D6DA-43F5-4D03-876B-1BE0E6BF7134}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -46,9 +46,6 @@
     <t>url_gambar</t>
   </si>
   <si>
-    <t>ts1-1.jpg</t>
-  </si>
-  <si>
     <t>ts4-4.jpg</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
     <t>ts1-4.jpg</t>
   </si>
   <si>
-    <t>ts4-1.jpg</t>
-  </si>
-  <si>
     <t>ts4-2.jpg</t>
   </si>
   <si>
@@ -71,6 +65,75 @@
   </si>
   <si>
     <t>id_barang</t>
+  </si>
+  <si>
+    <t>sl1-2.jpg</t>
+  </si>
+  <si>
+    <t>sl1-3.jpg</t>
+  </si>
+  <si>
+    <t>sl1-4.jpg</t>
+  </si>
+  <si>
+    <t>hd1-2.jpg</t>
+  </si>
+  <si>
+    <t>hd1-3.jpg</t>
+  </si>
+  <si>
+    <t>hd1-4.jpg</t>
+  </si>
+  <si>
+    <t>hd2-2.jpg</t>
+  </si>
+  <si>
+    <t>hd2-3.jpg</t>
+  </si>
+  <si>
+    <t>hd2-4.jpg</t>
+  </si>
+  <si>
+    <t>tas1-2.jpg</t>
+  </si>
+  <si>
+    <t>tas1-3.jpg</t>
+  </si>
+  <si>
+    <t>tas1-4.jpg</t>
+  </si>
+  <si>
+    <t>tas3-1.jpg</t>
+  </si>
+  <si>
+    <t>tas3-2.jpg</t>
+  </si>
+  <si>
+    <t>tas3-3.jpg</t>
+  </si>
+  <si>
+    <t>sc1-2.jpg</t>
+  </si>
+  <si>
+    <t>sc1-3.jpg</t>
+  </si>
+  <si>
+    <t>sr1-2.jpg</t>
+  </si>
+  <si>
+    <t>sr1-3.jpg</t>
+  </si>
+  <si>
+    <t>sr1-4.jpg</t>
+  </si>
+  <si>
+    <t>js1-2.jpg</t>
+  </si>
+  <si>
+    <t>js1-3.jpg</t>
+  </si>
+  <si>
+    <t>js1-4.jpg</t>
   </si>
 </sst>
 </file>
@@ -439,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC210C0-9D73-46BA-9C56-AD0FD5D86CE8}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -452,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -472,7 +535,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1"/>
       <c r="K2" s="2"/>
@@ -506,7 +569,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -531,7 +594,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -539,7 +602,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -550,10 +613,241 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
